--- a/Desarrollo/SGDC/Documentos/DocumentosSprint/SGDC_SB3.xlsx
+++ b/Desarrollo/SGDC/Documentos/DocumentosSprint/SGDC_SB3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNMSM_Cursos\fisi_8vo_ciclo\Gest_conf_mantto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fisi_UNMSM\fisi_8vo_ciclo\Gest_conf_mantto\HernandezLivia\CodeMentorSolutions\Desarrollo\SGDC\Documentos\DocumentosSprint\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="60">
   <si>
     <t>Sprint #</t>
   </si>
@@ -191,6 +191,15 @@
   </si>
   <si>
     <t>Ccora Quispe Holiver Jhunior y Arriola Padilla Angela Nayeli</t>
+  </si>
+  <si>
+    <t>Avanzar con el desarrollo de la lógica para agregar platos al carrito</t>
+  </si>
+  <si>
+    <t>Avanzar con el desarrollo de la base de datos para PBI-12</t>
+  </si>
+  <si>
+    <t>Crear un módulo para visualizar la carta en línea</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1290,7 @@
   <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1382,7 +1391,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>56</v>
@@ -1527,7 +1536,7 @@
         <v>42</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>26</v>
@@ -1598,14 +1607,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
       <c r="C26" s="50"/>
       <c r="D26" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>23</v>

--- a/Desarrollo/SGDC/Documentos/DocumentosSprint/SGDC_SB3.xlsx
+++ b/Desarrollo/SGDC/Documentos/DocumentosSprint/SGDC_SB3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fisi_UNMSM\fisi_8vo_ciclo\Gest_conf_mantto\HernandezLivia\CodeMentorSolutions\Desarrollo\SGDC\Documentos\DocumentosSprint\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNMSM_Cursos\fisi_8vo_ciclo\Gest_conf_mantto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="57">
   <si>
     <t>Sprint #</t>
   </si>
@@ -191,15 +191,6 @@
   </si>
   <si>
     <t>Ccora Quispe Holiver Jhunior y Arriola Padilla Angela Nayeli</t>
-  </si>
-  <si>
-    <t>Avanzar con el desarrollo de la lógica para agregar platos al carrito</t>
-  </si>
-  <si>
-    <t>Avanzar con el desarrollo de la base de datos para PBI-12</t>
-  </si>
-  <si>
-    <t>Crear un módulo para visualizar la carta en línea</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1281,7 @@
   <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1391,7 +1382,7 @@
         <v>30</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>56</v>
@@ -1536,7 +1527,7 @@
         <v>42</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>26</v>
@@ -1607,14 +1598,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
       <c r="C26" s="50"/>
       <c r="D26" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>23</v>
